--- a/trunk/doc/09.进度/成都信息工程大学-2班2组_进度跟踪表.xlsx
+++ b/trunk/doc/09.进度/成都信息工程大学-2班2组_进度跟踪表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiangjinagyujia\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\yupi\project\iss-cloud-disk_6653\trunk\doc\09.进度\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8786128E-FA9F-4E69-BD3C-34397A54596A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E892A139-07B2-430B-8E13-F86C92EF215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5652" yWindow="2064" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="进度跟踪" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t>数据库设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈永奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戢祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋昌平，杨飞鸿，陈鑫，张阳，李文豪，杨晨宇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,7 +1159,7 @@
   <dimension ref="B1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1233,34 +1257,64 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8">
+        <v>45286</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8">
+        <v>45286</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+    <row r="8" spans="2:21" ht="43.2">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8">
+        <v>45287</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:21">
@@ -1268,7 +1322,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:21">

--- a/trunk/doc/09.进度/成都信息工程大学-2班2组_进度跟踪表.xlsx
+++ b/trunk/doc/09.进度/成都信息工程大学-2班2组_进度跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\yupi\project\iss-cloud-disk_6653\trunk\doc\09.进度\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E892A139-07B2-430B-8E13-F86C92EF215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009982EA-6DB5-46EB-B23E-938AE7AB3A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>蒋昌平，杨飞鸿，陈鑫，张阳，李文豪，杨晨宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1163,7 @@
   <dimension ref="B1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1258,13 +1262,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8">
-        <v>45286</v>
+        <v>45284</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -1276,13 +1280,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8">
-        <v>45286</v>
+        <v>45284</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -1300,7 +1304,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="8">
-        <v>45287</v>
+        <v>45285</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -1311,17 +1315,25 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8">
+        <v>45286</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
